--- a/NodeJs-Notes1.xlsx
+++ b/NodeJs-Notes1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\NodeJs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\0-SDE-Preperation\NodeJs-STUDY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BF1A56-1079-45D7-9EE2-0E6270E3EF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CC0C0B-E8CF-456B-B1E7-709116F49982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="958" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="958" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="architecture" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="738">
   <si>
     <t>Node.js Architecture</t>
   </si>
@@ -8086,6 +8086,15 @@
   </si>
   <si>
     <t>Class: Cluster</t>
+  </si>
+  <si>
+    <t>const userSkillSchema= new mongoose.Schema({</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    user:{type:mongoose.Schema.ObjectId,ref:user},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    skill:{type:mongoose.Schema.ObjectId,ref:skill}</t>
   </si>
 </sst>
 </file>
@@ -8417,7 +8426,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -8477,11 +8486,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8864,6 +8953,15 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9803,6 +9901,50 @@
         <a:xfrm>
           <a:off x="6819900" y="29470350"/>
           <a:ext cx="5753903" cy="1181265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5981700</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>420061</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>76756</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A60BCD16-6C29-C63B-55E5-A86BAA19FA36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="70799325"/>
+          <a:ext cx="6887536" cy="3982006"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12118,8 +12260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B29"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12250,7 +12392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2AA5ED-4EE0-4357-94BE-5B3236D2ACA0}">
   <dimension ref="B1:D60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -12587,7 +12729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE72D0A-8150-4D2F-BA8D-AB1BDE229291}">
   <dimension ref="B1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -12620,7 +12762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A7AE75-BD59-4748-9D66-D79AAF95866C}">
   <dimension ref="B1:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -12854,8 +12996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C4E0A1-3A05-465F-B727-4504412CDB62}">
   <dimension ref="B1:D339"/>
   <sheetViews>
-    <sheetView topLeftCell="A349" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B323" sqref="B323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14622,7 +14764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188B2AAD-0735-4BF1-BDD8-41237CF4D92C}">
   <dimension ref="B1:B53"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -14863,7 +15005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E42F3D8-7706-4B16-9BB2-7D6A930BEE2C}">
   <dimension ref="B1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
@@ -15000,7 +15142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF852BF-3526-45C1-B148-28E859323487}">
   <dimension ref="B1:B225"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
@@ -16071,7 +16213,7 @@
   <dimension ref="B2:B107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16571,14 +16713,56 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B245EEBD-A6EF-46AD-9A9E-E4081088E5F4}">
-  <dimension ref="A1"/>
+  <dimension ref="A20:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="21" spans="1:6">
+      <c r="A21" s="138" t="s">
+        <v>735</v>
+      </c>
+      <c r="B21" s="139"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="140"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="141" t="s">
+        <v>736</v>
+      </c>
+      <c r="B22" s="142"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="143"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="141" t="s">
+        <v>737</v>
+      </c>
+      <c r="B23" s="142"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="143"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A24" s="144" t="s">
+        <v>285</v>
+      </c>
+      <c r="B24" s="145"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="146"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -16588,8 +16772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03849EC-E05A-4F32-9695-0976483A8F44}">
   <dimension ref="B1:B67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16934,8 +17118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF59AC9-1334-48DA-B77C-AAC63A625053}">
   <dimension ref="A19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16955,8 +17139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD139267-C4A1-4F49-BD56-236899625639}">
   <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/NodeJs-Notes1.xlsx
+++ b/NodeJs-Notes1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\0-SDE-Preperation\NodeJs-STUDY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CC0C0B-E8CF-456B-B1E7-709116F49982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C8EEA6-BEAA-49BE-B35A-FB47462A196A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="958" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="958" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="architecture" sheetId="1" r:id="rId1"/>
@@ -18,18 +18,18 @@
     <sheet name="ejs" sheetId="3" r:id="rId3"/>
     <sheet name="sql" sheetId="9" r:id="rId4"/>
     <sheet name="mongo" sheetId="10" r:id="rId5"/>
-    <sheet name="jwt" sheetId="11" r:id="rId6"/>
-    <sheet name="multer" sheetId="17" r:id="rId7"/>
-    <sheet name="WebSocket" sheetId="18" r:id="rId8"/>
-    <sheet name="child_process" sheetId="15" r:id="rId9"/>
-    <sheet name="cluster" sheetId="7" r:id="rId10"/>
-    <sheet name="REPL" sheetId="16" r:id="rId11"/>
-    <sheet name="error" sheetId="4" r:id="rId12"/>
-    <sheet name="global" sheetId="6" r:id="rId13"/>
-    <sheet name="module" sheetId="2" r:id="rId14"/>
-    <sheet name="security" sheetId="5" r:id="rId15"/>
-    <sheet name="openssl" sheetId="8" r:id="rId16"/>
-    <sheet name="ehb" sheetId="12" r:id="rId17"/>
+    <sheet name="prisma" sheetId="12" r:id="rId6"/>
+    <sheet name="jwt" sheetId="11" r:id="rId7"/>
+    <sheet name="multer" sheetId="17" r:id="rId8"/>
+    <sheet name="WebSocket" sheetId="18" r:id="rId9"/>
+    <sheet name="child_process" sheetId="15" r:id="rId10"/>
+    <sheet name="cluster" sheetId="7" r:id="rId11"/>
+    <sheet name="REPL" sheetId="16" r:id="rId12"/>
+    <sheet name="error" sheetId="4" r:id="rId13"/>
+    <sheet name="global" sheetId="6" r:id="rId14"/>
+    <sheet name="module" sheetId="2" r:id="rId15"/>
+    <sheet name="security" sheetId="5" r:id="rId16"/>
+    <sheet name="openssl" sheetId="8" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="834">
   <si>
     <t>Node.js Architecture</t>
   </si>
@@ -8096,12 +8096,4706 @@
   <si>
     <t xml:space="preserve">    skill:{type:mongoose.Schema.ObjectId,ref:skill}</t>
   </si>
+  <si>
+    <r>
+      <t>generator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>provider</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"prisma-client-js"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>datasource</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>db</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>provider</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"postgresql"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>env</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"DATABASE_URL"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>@id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>@default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>autoincrement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>())</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>@map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>@map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"user_name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>@unique</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>website</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>@map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"website"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>@@map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"users"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>@id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>@default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>autoincrement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>())</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>String</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>body</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>String</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>author</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>@relation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: [authorId], </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>references</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [id]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>authorId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>prismaClient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>({</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>data:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id:user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name:user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>username:user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>email:user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>website:user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>website</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>                })</t>
+  </si>
+  <si>
+    <r>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>prismaClient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>findUnique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>({</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>where:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id:payload</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}})</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>any</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>todoPrismaClient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$queryRaw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> todos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> id=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>payload</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>todoPrismaClient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PrismaClient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>jwt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>require</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'jsonwebtoken'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>jwksClient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>require</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'jwks-rsa'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>jwksClient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>({</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>jwksUri:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'https://login.microsoftonline.com/common/discovery/keys'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>getKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>header</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>callback</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>getSigningKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>header</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>kid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>err</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>signingKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>publicKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rsaPublicKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>callback</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>signingKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>  });</t>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'YOUR_TOKEN_HERE'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>jwt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>verify</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>getKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, { </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>algorithms:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'RS256'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] }, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>err</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>decoded</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>err</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Token verification failed:'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>err</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  } </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Decoded token:'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>decoded</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>  }</t>
+  </si>
+  <si>
+    <t>OPPENID token verify</t>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>updateUsers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>prisma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>updateMany</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>({</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>where:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>email:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>contains:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'prisma.io'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>      },</t>
+  </si>
+  <si>
+    <t>    },</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>data:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>role:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'ADMIN'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>  })</t>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>upsertUser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>prisma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>upsert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>({</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>email:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'viola@prisma.io'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>update:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Viola the Magnificent'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>create:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>updatePosts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>prisma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>updateMany</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>({</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>views:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>increment:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>likes:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>deleteUsers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>prisma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>deleteMany</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>({</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>deleteUsers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>prisma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>deleteMany</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>({})</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>prisma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>findMany</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>({</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>include:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>posts:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>Include related records</t>
+  </si>
+  <si>
+    <t>delete all</t>
+  </si>
+  <si>
+    <t>Select a subset of related record fields</t>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>prisma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>findUnique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>({</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>email:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'emma@prisma.io'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>select:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>email:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>posts:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>select:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>likes:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>        },</t>
+  </si>
+  <si>
+    <t>Filter by multiple field values</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>OR:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> [</t>
+    </r>
+  </si>
+  <si>
+    <t>        {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>startsWith:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'E'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>          },</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>AND:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>profileViews:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>gt:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>            },</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>role:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>equals:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'ADMIN'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>      ],</t>
+  </si>
+  <si>
+    <t>https://www.prisma.io/docs/orm/prisma-client/queries/crud#deletemany</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="47">
+  <fonts count="59">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8387,8 +13081,82 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF808080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4FC1FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8422,6 +13190,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8567,10 +13347,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8957,13 +13738,46 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -12260,7 +17074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -12389,10 +17203,409 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD139267-C4A1-4F49-BD56-236899625639}">
+  <dimension ref="A1:B84"/>
+  <sheetViews>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="109.5703125" customWidth="1"/>
+    <col min="3" max="3" width="2" customWidth="1"/>
+    <col min="4" max="4" width="63.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="60">
+      <c r="B1" s="71" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" ht="16.5">
+      <c r="B2" s="42" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="16.5">
+      <c r="B4" s="42" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="12" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B6" s="72" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="15.75" thickBot="1"/>
+    <row r="8" spans="2:2" ht="66.75" thickBot="1">
+      <c r="B8" s="73" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="16.5">
+      <c r="B9" s="35" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B10" s="44" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B11" s="74" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="56" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="16.5">
+      <c r="B13" s="56" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="56" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="75" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5">
+      <c r="B17" s="76"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" s="56" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="75" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5">
+      <c r="B21" s="76"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" s="56" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.5">
+      <c r="B23" s="75" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="26" spans="1:2" ht="99.75" thickBot="1">
+      <c r="B26" s="35" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16.5">
+      <c r="B27" s="35" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16.5" thickBot="1">
+      <c r="B28" s="44" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17.25" thickBot="1">
+      <c r="B29" s="74" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16.5">
+      <c r="A30" s="34" t="s">
+        <v>442</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" s="58" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16.5">
+      <c r="B32" s="77"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" s="58" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16.5">
+      <c r="B34" s="77"/>
+    </row>
+    <row r="35" spans="1:2" ht="16.5">
+      <c r="B35" s="58" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" s="78" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" s="58" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="16.5">
+      <c r="B38" s="77"/>
+    </row>
+    <row r="39" spans="1:2" ht="16.5">
+      <c r="B39" s="58" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16.5">
+      <c r="B40" s="77"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" s="58" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16.5">
+      <c r="B42" s="78" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1">
+      <c r="B43" s="79" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="45" spans="1:2" ht="16.5">
+      <c r="A45" s="34" t="s">
+        <v>443</v>
+      </c>
+      <c r="B45" s="80" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" s="47" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="B47" s="48" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48" s="47"/>
+    </row>
+    <row r="49" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B49" s="49" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="15.75" thickBot="1"/>
+    <row r="52" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B52" s="74" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="16.5">
+      <c r="B53" s="35" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B54" s="44" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B55" s="74" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="80" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="47"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="54" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="54" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="48" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="47" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="47" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="47" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="47" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="47" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="47" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="47" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B68" s="49" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" ht="15.75" thickBot="1"/>
+    <row r="71" spans="2:2" ht="50.25" thickBot="1">
+      <c r="B71" s="82" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" ht="16.5">
+      <c r="B72" s="35" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" ht="16.5" thickBot="1">
+      <c r="B73" s="44" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B74" s="74" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="80" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="47"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="54" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="48" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="47" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="47" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="47" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="47" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="47" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B84" s="63" t="s">
+        <v>393</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2AA5ED-4EE0-4357-94BE-5B3236D2ACA0}">
   <dimension ref="B1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -12725,7 +17938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE72D0A-8150-4D2F-BA8D-AB1BDE229291}">
   <dimension ref="B1:B3"/>
   <sheetViews>
@@ -12758,7 +17971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A7AE75-BD59-4748-9D66-D79AAF95866C}">
   <dimension ref="B1:B40"/>
   <sheetViews>
@@ -12907,7 +18120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D6B67C-EFD8-40A7-B460-67F9DE4A5249}">
   <dimension ref="B1:B20"/>
   <sheetViews>
@@ -12992,11 +18205,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C4E0A1-3A05-465F-B727-4504412CDB62}">
   <dimension ref="B1:D339"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B323" sqref="B323"/>
     </sheetView>
   </sheetViews>
@@ -14619,11 +19832,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D175DDA-17FD-4C59-B51D-641CF8C4851E}">
   <dimension ref="B1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -14760,7 +19973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188B2AAD-0735-4BF1-BDD8-41237CF4D92C}">
   <dimension ref="B1:B53"/>
   <sheetViews>
@@ -14984,20 +20197,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4436BFA2-33BD-4521-B9CC-F3E4C6506A40}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -16212,7 +21411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A56643B-F44B-4926-9E28-9A20E0C5DC90}">
   <dimension ref="B2:B107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -16715,7 +21914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B245EEBD-A6EF-46AD-9A9E-E4081088E5F4}">
   <dimension ref="A20:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -16736,31 +21935,31 @@
       <c r="A22" s="141" t="s">
         <v>736</v>
       </c>
-      <c r="B22" s="142"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="143"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="142"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="141" t="s">
         <v>737</v>
       </c>
-      <c r="B23" s="142"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="143"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="142"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A24" s="144" t="s">
+      <c r="A24" s="143" t="s">
         <v>285</v>
       </c>
-      <c r="B24" s="145"/>
-      <c r="C24" s="145"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="146"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="145"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16769,11 +21968,1255 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4436BFA2-33BD-4521-B9CC-F3E4C6506A40}">
+  <dimension ref="B1:R73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:18">
+      <c r="B1" s="158" t="s">
+        <v>833</v>
+      </c>
+      <c r="K1" s="146" t="s">
+        <v>768</v>
+      </c>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+    </row>
+    <row r="2" spans="2:18">
+      <c r="B2" s="146" t="s">
+        <v>738</v>
+      </c>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="B3" s="148" t="s">
+        <v>739</v>
+      </c>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="K3" s="151" t="s">
+        <v>757</v>
+      </c>
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="147"/>
+      <c r="P3" s="147"/>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="148" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="K4" s="148" t="s">
+        <v>758</v>
+      </c>
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="147"/>
+      <c r="P4" s="147"/>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="149"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="K5" s="148" t="s">
+        <v>759</v>
+      </c>
+      <c r="L5" s="147"/>
+      <c r="M5" s="147"/>
+      <c r="N5" s="147"/>
+      <c r="O5" s="147"/>
+      <c r="P5" s="147"/>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="146" t="s">
+        <v>740</v>
+      </c>
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="K6" s="148" t="s">
+        <v>760</v>
+      </c>
+      <c r="L6" s="147"/>
+      <c r="M6" s="147"/>
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
+      <c r="P6" s="147"/>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="148" t="s">
+        <v>741</v>
+      </c>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="K7" s="148" t="s">
+        <v>761</v>
+      </c>
+      <c r="L7" s="147"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="147"/>
+      <c r="P7" s="147"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="148" t="s">
+        <v>742</v>
+      </c>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+      <c r="K8" s="148" t="s">
+        <v>762</v>
+      </c>
+      <c r="L8" s="147"/>
+      <c r="M8" s="147"/>
+      <c r="N8" s="147"/>
+      <c r="O8" s="147"/>
+      <c r="P8" s="147"/>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="148" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="K9" s="148" t="s">
+        <v>763</v>
+      </c>
+      <c r="L9" s="147"/>
+      <c r="M9" s="147"/>
+      <c r="N9" s="147"/>
+      <c r="O9" s="147"/>
+      <c r="P9" s="147"/>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="149"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="146" t="s">
+        <v>743</v>
+      </c>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="K11" s="151" t="s">
+        <v>764</v>
+      </c>
+      <c r="L11" s="147"/>
+      <c r="M11" s="147"/>
+      <c r="N11" s="147"/>
+      <c r="O11" s="147"/>
+      <c r="P11" s="147"/>
+      <c r="Q11" s="147"/>
+      <c r="R11" s="147"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="148" t="s">
+        <v>744</v>
+      </c>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="148" t="s">
+        <v>745</v>
+      </c>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="K13" s="146" t="s">
+        <v>765</v>
+      </c>
+      <c r="L13" s="147"/>
+      <c r="M13" s="147"/>
+      <c r="N13" s="147"/>
+      <c r="O13" s="147"/>
+      <c r="P13" s="147"/>
+      <c r="Q13" s="147"/>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="148" t="s">
+        <v>746</v>
+      </c>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="147"/>
+      <c r="K14" s="152" t="s">
+        <v>766</v>
+      </c>
+      <c r="L14" s="147"/>
+      <c r="M14" s="147"/>
+      <c r="N14" s="147"/>
+      <c r="O14" s="147"/>
+      <c r="P14" s="147"/>
+      <c r="Q14" s="147"/>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="148" t="s">
+        <v>747</v>
+      </c>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="K15" s="152" t="s">
+        <v>767</v>
+      </c>
+      <c r="L15" s="147"/>
+      <c r="M15" s="147"/>
+      <c r="N15" s="147"/>
+      <c r="O15" s="147"/>
+      <c r="P15" s="147"/>
+      <c r="Q15" s="147"/>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="148" t="s">
+        <v>748</v>
+      </c>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="148" t="s">
+        <v>749</v>
+      </c>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="K17" s="153" t="s">
+        <v>786</v>
+      </c>
+      <c r="L17" s="157"/>
+      <c r="M17" s="157"/>
+      <c r="N17" s="157"/>
+      <c r="O17" s="157"/>
+      <c r="P17" s="157"/>
+      <c r="Q17" s="157"/>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="149"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="K18" s="155" t="s">
+        <v>787</v>
+      </c>
+      <c r="L18" s="157"/>
+      <c r="M18" s="157"/>
+      <c r="N18" s="157"/>
+      <c r="O18" s="157"/>
+      <c r="P18" s="157"/>
+      <c r="Q18" s="157"/>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" s="148" t="s">
+        <v>750</v>
+      </c>
+      <c r="C19" s="147"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="K19" s="155" t="s">
+        <v>788</v>
+      </c>
+      <c r="L19" s="157"/>
+      <c r="M19" s="157"/>
+      <c r="N19" s="157"/>
+      <c r="O19" s="157"/>
+      <c r="P19" s="157"/>
+      <c r="Q19" s="157"/>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" s="150" t="s">
+        <v>330</v>
+      </c>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="K20" s="155" t="s">
+        <v>789</v>
+      </c>
+      <c r="L20" s="157"/>
+      <c r="M20" s="157"/>
+      <c r="N20" s="157"/>
+      <c r="O20" s="157"/>
+      <c r="P20" s="157"/>
+      <c r="Q20" s="157"/>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="149"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="K21" s="155" t="s">
+        <v>790</v>
+      </c>
+      <c r="L21" s="157"/>
+      <c r="M21" s="157"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="157"/>
+      <c r="P21" s="157"/>
+      <c r="Q21" s="157"/>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" s="149"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="147"/>
+      <c r="K22" s="155" t="s">
+        <v>791</v>
+      </c>
+      <c r="L22" s="157"/>
+      <c r="M22" s="157"/>
+      <c r="N22" s="157"/>
+      <c r="O22" s="157"/>
+      <c r="P22" s="157"/>
+      <c r="Q22" s="157"/>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="146" t="s">
+        <v>751</v>
+      </c>
+      <c r="C23" s="147"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="147"/>
+      <c r="K23" s="155" t="s">
+        <v>792</v>
+      </c>
+      <c r="L23" s="157"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="157"/>
+      <c r="O23" s="157"/>
+      <c r="P23" s="157"/>
+      <c r="Q23" s="157"/>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="148" t="s">
+        <v>752</v>
+      </c>
+      <c r="C24" s="147"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="147"/>
+      <c r="K24" s="155" t="s">
+        <v>793</v>
+      </c>
+      <c r="L24" s="157"/>
+      <c r="M24" s="157"/>
+      <c r="N24" s="157"/>
+      <c r="O24" s="157"/>
+      <c r="P24" s="157"/>
+      <c r="Q24" s="157"/>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="B25" s="148" t="s">
+        <v>753</v>
+      </c>
+      <c r="C25" s="147"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="K25" s="155" t="s">
+        <v>791</v>
+      </c>
+      <c r="L25" s="157"/>
+      <c r="M25" s="157"/>
+      <c r="N25" s="157"/>
+      <c r="O25" s="157"/>
+      <c r="P25" s="157"/>
+      <c r="Q25" s="157"/>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="B26" s="148" t="s">
+        <v>754</v>
+      </c>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="147"/>
+      <c r="K26" s="155" t="s">
+        <v>794</v>
+      </c>
+      <c r="L26" s="157"/>
+      <c r="M26" s="157"/>
+      <c r="N26" s="157"/>
+      <c r="O26" s="157"/>
+      <c r="P26" s="157"/>
+      <c r="Q26" s="157"/>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="B27" s="148" t="s">
+        <v>755</v>
+      </c>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="147"/>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="B28" s="148" t="s">
+        <v>756</v>
+      </c>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="147"/>
+      <c r="K28" s="153" t="s">
+        <v>795</v>
+      </c>
+      <c r="L28" s="157"/>
+      <c r="M28" s="157"/>
+      <c r="N28" s="157"/>
+      <c r="O28" s="157"/>
+      <c r="P28" s="157"/>
+      <c r="Q28" s="157"/>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="B29" s="150" t="s">
+        <v>330</v>
+      </c>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="K29" s="155" t="s">
+        <v>787</v>
+      </c>
+      <c r="L29" s="157"/>
+      <c r="M29" s="157"/>
+      <c r="N29" s="157"/>
+      <c r="O29" s="157"/>
+      <c r="P29" s="157"/>
+      <c r="Q29" s="157"/>
+    </row>
+    <row r="30" spans="2:17">
+      <c r="K30" s="155" t="s">
+        <v>796</v>
+      </c>
+      <c r="L30" s="157"/>
+      <c r="M30" s="157"/>
+      <c r="N30" s="157"/>
+      <c r="O30" s="157"/>
+      <c r="P30" s="157"/>
+      <c r="Q30" s="157"/>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="B31" s="153" t="s">
+        <v>800</v>
+      </c>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="157"/>
+      <c r="K31" s="155" t="s">
+        <v>791</v>
+      </c>
+      <c r="L31" s="157"/>
+      <c r="M31" s="157"/>
+      <c r="N31" s="157"/>
+      <c r="O31" s="157"/>
+      <c r="P31" s="157"/>
+      <c r="Q31" s="157"/>
+    </row>
+    <row r="32" spans="2:17">
+      <c r="B32" s="155" t="s">
+        <v>792</v>
+      </c>
+      <c r="C32" s="157"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="157"/>
+      <c r="K32" s="155" t="s">
+        <v>797</v>
+      </c>
+      <c r="L32" s="157"/>
+      <c r="M32" s="157"/>
+      <c r="N32" s="157"/>
+      <c r="O32" s="157"/>
+      <c r="P32" s="157"/>
+      <c r="Q32" s="157"/>
+    </row>
+    <row r="33" spans="2:17">
+      <c r="B33" s="155" t="s">
+        <v>801</v>
+      </c>
+      <c r="C33" s="157"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="157"/>
+      <c r="H33" s="157"/>
+      <c r="K33" s="155" t="s">
+        <v>798</v>
+      </c>
+      <c r="L33" s="157"/>
+      <c r="M33" s="157"/>
+      <c r="N33" s="157"/>
+      <c r="O33" s="157"/>
+      <c r="P33" s="157"/>
+      <c r="Q33" s="157"/>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="B34" s="155" t="s">
+        <v>802</v>
+      </c>
+      <c r="C34" s="157"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="157"/>
+      <c r="K34" s="155" t="s">
+        <v>791</v>
+      </c>
+      <c r="L34" s="157"/>
+      <c r="M34" s="157"/>
+      <c r="N34" s="157"/>
+      <c r="O34" s="157"/>
+      <c r="P34" s="157"/>
+      <c r="Q34" s="157"/>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="B35" s="155" t="s">
+        <v>790</v>
+      </c>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="157"/>
+      <c r="K35" s="155" t="s">
+        <v>799</v>
+      </c>
+      <c r="L35" s="157"/>
+      <c r="M35" s="157"/>
+      <c r="N35" s="157"/>
+      <c r="O35" s="157"/>
+      <c r="P35" s="157"/>
+      <c r="Q35" s="157"/>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="B36" s="155" t="s">
+        <v>803</v>
+      </c>
+      <c r="C36" s="157"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="157"/>
+      <c r="K36" s="155" t="s">
+        <v>796</v>
+      </c>
+      <c r="L36" s="157"/>
+      <c r="M36" s="157"/>
+      <c r="N36" s="157"/>
+      <c r="O36" s="157"/>
+      <c r="P36" s="157"/>
+      <c r="Q36" s="157"/>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="B37" s="155" t="s">
+        <v>802</v>
+      </c>
+      <c r="C37" s="157"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="157"/>
+      <c r="K37" s="155" t="s">
+        <v>798</v>
+      </c>
+      <c r="L37" s="157"/>
+      <c r="M37" s="157"/>
+      <c r="N37" s="157"/>
+      <c r="O37" s="157"/>
+      <c r="P37" s="157"/>
+      <c r="Q37" s="157"/>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="B38" s="155" t="s">
+        <v>790</v>
+      </c>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="157"/>
+      <c r="K38" s="155" t="s">
+        <v>791</v>
+      </c>
+      <c r="L38" s="157"/>
+      <c r="M38" s="157"/>
+      <c r="N38" s="157"/>
+      <c r="O38" s="157"/>
+      <c r="P38" s="157"/>
+      <c r="Q38" s="157"/>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="B39" s="155" t="s">
+        <v>791</v>
+      </c>
+      <c r="C39" s="157"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="157"/>
+      <c r="H39" s="157"/>
+      <c r="K39" s="155" t="s">
+        <v>794</v>
+      </c>
+      <c r="L39" s="157"/>
+      <c r="M39" s="157"/>
+      <c r="N39" s="157"/>
+      <c r="O39" s="157"/>
+      <c r="P39" s="157"/>
+      <c r="Q39" s="157"/>
+    </row>
+    <row r="40" spans="2:17">
+      <c r="B40" s="155" t="s">
+        <v>794</v>
+      </c>
+      <c r="C40" s="157"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="157"/>
+      <c r="H40" s="157"/>
+    </row>
+    <row r="41" spans="2:17">
+      <c r="J41" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="B42" s="153" t="s">
+        <v>804</v>
+      </c>
+      <c r="C42" s="157"/>
+      <c r="D42" s="157"/>
+      <c r="E42" s="157"/>
+      <c r="F42" s="157"/>
+      <c r="G42" s="157"/>
+      <c r="H42" s="157"/>
+      <c r="J42" s="153" t="s">
+        <v>806</v>
+      </c>
+      <c r="K42" s="157"/>
+      <c r="L42" s="157"/>
+      <c r="M42" s="157"/>
+      <c r="N42" s="157"/>
+      <c r="O42" s="157"/>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="B43" s="155" t="s">
+        <v>787</v>
+      </c>
+      <c r="C43" s="157"/>
+      <c r="D43" s="157"/>
+      <c r="E43" s="157"/>
+      <c r="F43" s="157"/>
+      <c r="G43" s="157"/>
+      <c r="H43" s="157"/>
+      <c r="J43" s="155" t="s">
+        <v>787</v>
+      </c>
+      <c r="K43" s="157"/>
+      <c r="L43" s="157"/>
+      <c r="M43" s="157"/>
+      <c r="N43" s="157"/>
+      <c r="O43" s="157"/>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="B44" s="155" t="s">
+        <v>788</v>
+      </c>
+      <c r="C44" s="157"/>
+      <c r="D44" s="157"/>
+      <c r="E44" s="157"/>
+      <c r="F44" s="157"/>
+      <c r="G44" s="157"/>
+      <c r="H44" s="157"/>
+      <c r="J44" s="155" t="s">
+        <v>793</v>
+      </c>
+      <c r="K44" s="157"/>
+      <c r="L44" s="157"/>
+      <c r="M44" s="157"/>
+      <c r="N44" s="157"/>
+      <c r="O44" s="157"/>
+    </row>
+    <row r="45" spans="2:17">
+      <c r="B45" s="155" t="s">
+        <v>789</v>
+      </c>
+      <c r="C45" s="157"/>
+      <c r="D45" s="157"/>
+      <c r="E45" s="157"/>
+      <c r="F45" s="157"/>
+      <c r="G45" s="157"/>
+      <c r="H45" s="157"/>
+      <c r="J45" s="155" t="s">
+        <v>791</v>
+      </c>
+      <c r="K45" s="157"/>
+      <c r="L45" s="157"/>
+      <c r="M45" s="157"/>
+      <c r="N45" s="157"/>
+      <c r="O45" s="157"/>
+    </row>
+    <row r="46" spans="2:17">
+      <c r="B46" s="155" t="s">
+        <v>790</v>
+      </c>
+      <c r="C46" s="157"/>
+      <c r="D46" s="157"/>
+      <c r="E46" s="157"/>
+      <c r="F46" s="157"/>
+      <c r="G46" s="157"/>
+      <c r="H46" s="157"/>
+      <c r="J46" s="155" t="s">
+        <v>807</v>
+      </c>
+      <c r="K46" s="157"/>
+      <c r="L46" s="157"/>
+      <c r="M46" s="157"/>
+      <c r="N46" s="157"/>
+      <c r="O46" s="157"/>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="B47" s="155" t="s">
+        <v>791</v>
+      </c>
+      <c r="C47" s="157"/>
+      <c r="D47" s="157"/>
+      <c r="E47" s="157"/>
+      <c r="F47" s="157"/>
+      <c r="G47" s="157"/>
+      <c r="H47" s="157"/>
+      <c r="J47" s="155" t="s">
+        <v>808</v>
+      </c>
+      <c r="K47" s="157"/>
+      <c r="L47" s="157"/>
+      <c r="M47" s="157"/>
+      <c r="N47" s="157"/>
+      <c r="O47" s="157"/>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="B48" s="155" t="s">
+        <v>794</v>
+      </c>
+      <c r="C48" s="157"/>
+      <c r="D48" s="157"/>
+      <c r="E48" s="157"/>
+      <c r="F48" s="157"/>
+      <c r="G48" s="157"/>
+      <c r="H48" s="157"/>
+      <c r="J48" s="155" t="s">
+        <v>791</v>
+      </c>
+      <c r="K48" s="157"/>
+      <c r="L48" s="157"/>
+      <c r="M48" s="157"/>
+      <c r="N48" s="157"/>
+      <c r="O48" s="157"/>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" t="s">
+        <v>810</v>
+      </c>
+      <c r="J49" s="155" t="s">
+        <v>794</v>
+      </c>
+      <c r="K49" s="157"/>
+      <c r="L49" s="157"/>
+      <c r="M49" s="157"/>
+      <c r="N49" s="157"/>
+      <c r="O49" s="157"/>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="153" t="s">
+        <v>805</v>
+      </c>
+      <c r="C50" s="157"/>
+      <c r="D50" s="157"/>
+      <c r="E50" s="157"/>
+      <c r="F50" s="157"/>
+      <c r="G50" s="157"/>
+      <c r="H50" s="157"/>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" t="s">
+        <v>811</v>
+      </c>
+      <c r="I52" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="153" t="s">
+        <v>812</v>
+      </c>
+      <c r="C53" s="157"/>
+      <c r="D53" s="157"/>
+      <c r="E53" s="157"/>
+      <c r="F53" s="157"/>
+      <c r="G53" s="157"/>
+      <c r="I53" s="153" t="s">
+        <v>806</v>
+      </c>
+      <c r="J53" s="157"/>
+      <c r="K53" s="157"/>
+      <c r="L53" s="157"/>
+      <c r="M53" s="157"/>
+      <c r="N53" s="157"/>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="155" t="s">
+        <v>787</v>
+      </c>
+      <c r="C54" s="157"/>
+      <c r="D54" s="157"/>
+      <c r="E54" s="157"/>
+      <c r="F54" s="157"/>
+      <c r="G54" s="157"/>
+      <c r="I54" s="155" t="s">
+        <v>787</v>
+      </c>
+      <c r="J54" s="157"/>
+      <c r="K54" s="157"/>
+      <c r="L54" s="157"/>
+      <c r="M54" s="157"/>
+      <c r="N54" s="157"/>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="B55" s="155" t="s">
+        <v>813</v>
+      </c>
+      <c r="C55" s="157"/>
+      <c r="D55" s="157"/>
+      <c r="E55" s="157"/>
+      <c r="F55" s="157"/>
+      <c r="G55" s="157"/>
+      <c r="I55" s="155" t="s">
+        <v>821</v>
+      </c>
+      <c r="J55" s="157"/>
+      <c r="K55" s="157"/>
+      <c r="L55" s="157"/>
+      <c r="M55" s="157"/>
+      <c r="N55" s="157"/>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="B56" s="155" t="s">
+        <v>791</v>
+      </c>
+      <c r="C56" s="157"/>
+      <c r="D56" s="157"/>
+      <c r="E56" s="157"/>
+      <c r="F56" s="157"/>
+      <c r="G56" s="157"/>
+      <c r="I56" s="155" t="s">
+        <v>822</v>
+      </c>
+      <c r="J56" s="157"/>
+      <c r="K56" s="157"/>
+      <c r="L56" s="157"/>
+      <c r="M56" s="157"/>
+      <c r="N56" s="157"/>
+    </row>
+    <row r="57" spans="2:15">
+      <c r="B57" s="155" t="s">
+        <v>814</v>
+      </c>
+      <c r="C57" s="157"/>
+      <c r="D57" s="157"/>
+      <c r="E57" s="157"/>
+      <c r="F57" s="157"/>
+      <c r="G57" s="157"/>
+      <c r="I57" s="155" t="s">
+        <v>823</v>
+      </c>
+      <c r="J57" s="157"/>
+      <c r="K57" s="157"/>
+      <c r="L57" s="157"/>
+      <c r="M57" s="157"/>
+      <c r="N57" s="157"/>
+    </row>
+    <row r="58" spans="2:15">
+      <c r="B58" s="155" t="s">
+        <v>815</v>
+      </c>
+      <c r="C58" s="157"/>
+      <c r="D58" s="157"/>
+      <c r="E58" s="157"/>
+      <c r="F58" s="157"/>
+      <c r="G58" s="157"/>
+      <c r="I58" s="155" t="s">
+        <v>824</v>
+      </c>
+      <c r="J58" s="157"/>
+      <c r="K58" s="157"/>
+      <c r="L58" s="157"/>
+      <c r="M58" s="157"/>
+      <c r="N58" s="157"/>
+    </row>
+    <row r="59" spans="2:15">
+      <c r="B59" s="155" t="s">
+        <v>816</v>
+      </c>
+      <c r="C59" s="157"/>
+      <c r="D59" s="157"/>
+      <c r="E59" s="157"/>
+      <c r="F59" s="157"/>
+      <c r="G59" s="157"/>
+      <c r="I59" s="155" t="s">
+        <v>825</v>
+      </c>
+      <c r="J59" s="157"/>
+      <c r="K59" s="157"/>
+      <c r="L59" s="157"/>
+      <c r="M59" s="157"/>
+      <c r="N59" s="157"/>
+    </row>
+    <row r="60" spans="2:15">
+      <c r="B60" s="155" t="s">
+        <v>817</v>
+      </c>
+      <c r="C60" s="157"/>
+      <c r="D60" s="157"/>
+      <c r="E60" s="157"/>
+      <c r="F60" s="157"/>
+      <c r="G60" s="157"/>
+      <c r="I60" s="155" t="s">
+        <v>819</v>
+      </c>
+      <c r="J60" s="157"/>
+      <c r="K60" s="157"/>
+      <c r="L60" s="157"/>
+      <c r="M60" s="157"/>
+      <c r="N60" s="157"/>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="B61" s="155" t="s">
+        <v>818</v>
+      </c>
+      <c r="C61" s="157"/>
+      <c r="D61" s="157"/>
+      <c r="E61" s="157"/>
+      <c r="F61" s="157"/>
+      <c r="G61" s="157"/>
+      <c r="I61" s="155" t="s">
+        <v>822</v>
+      </c>
+      <c r="J61" s="157"/>
+      <c r="K61" s="157"/>
+      <c r="L61" s="157"/>
+      <c r="M61" s="157"/>
+      <c r="N61" s="157"/>
+    </row>
+    <row r="62" spans="2:15">
+      <c r="B62" s="155" t="s">
+        <v>819</v>
+      </c>
+      <c r="C62" s="157"/>
+      <c r="D62" s="157"/>
+      <c r="E62" s="157"/>
+      <c r="F62" s="157"/>
+      <c r="G62" s="157"/>
+      <c r="I62" s="155" t="s">
+        <v>826</v>
+      </c>
+      <c r="J62" s="157"/>
+      <c r="K62" s="157"/>
+      <c r="L62" s="157"/>
+      <c r="M62" s="157"/>
+      <c r="N62" s="157"/>
+    </row>
+    <row r="63" spans="2:15">
+      <c r="B63" s="155" t="s">
+        <v>790</v>
+      </c>
+      <c r="C63" s="157"/>
+      <c r="D63" s="157"/>
+      <c r="E63" s="157"/>
+      <c r="F63" s="157"/>
+      <c r="G63" s="157"/>
+      <c r="I63" s="155" t="s">
+        <v>827</v>
+      </c>
+      <c r="J63" s="157"/>
+      <c r="K63" s="157"/>
+      <c r="L63" s="157"/>
+      <c r="M63" s="157"/>
+      <c r="N63" s="157"/>
+    </row>
+    <row r="64" spans="2:15">
+      <c r="B64" s="155" t="s">
+        <v>791</v>
+      </c>
+      <c r="C64" s="157"/>
+      <c r="D64" s="157"/>
+      <c r="E64" s="157"/>
+      <c r="F64" s="157"/>
+      <c r="G64" s="157"/>
+      <c r="I64" s="155" t="s">
+        <v>828</v>
+      </c>
+      <c r="J64" s="157"/>
+      <c r="K64" s="157"/>
+      <c r="L64" s="157"/>
+      <c r="M64" s="157"/>
+      <c r="N64" s="157"/>
+    </row>
+    <row r="65" spans="2:14">
+      <c r="B65" s="155" t="s">
+        <v>794</v>
+      </c>
+      <c r="C65" s="157"/>
+      <c r="D65" s="157"/>
+      <c r="E65" s="157"/>
+      <c r="F65" s="157"/>
+      <c r="G65" s="157"/>
+      <c r="I65" s="155" t="s">
+        <v>829</v>
+      </c>
+      <c r="J65" s="157"/>
+      <c r="K65" s="157"/>
+      <c r="L65" s="157"/>
+      <c r="M65" s="157"/>
+      <c r="N65" s="157"/>
+    </row>
+    <row r="66" spans="2:14">
+      <c r="I66" s="155" t="s">
+        <v>830</v>
+      </c>
+      <c r="J66" s="157"/>
+      <c r="K66" s="157"/>
+      <c r="L66" s="157"/>
+      <c r="M66" s="157"/>
+      <c r="N66" s="157"/>
+    </row>
+    <row r="67" spans="2:14">
+      <c r="I67" s="155" t="s">
+        <v>831</v>
+      </c>
+      <c r="J67" s="157"/>
+      <c r="K67" s="157"/>
+      <c r="L67" s="157"/>
+      <c r="M67" s="157"/>
+      <c r="N67" s="157"/>
+    </row>
+    <row r="68" spans="2:14">
+      <c r="I68" s="155" t="s">
+        <v>829</v>
+      </c>
+      <c r="J68" s="157"/>
+      <c r="K68" s="157"/>
+      <c r="L68" s="157"/>
+      <c r="M68" s="157"/>
+      <c r="N68" s="157"/>
+    </row>
+    <row r="69" spans="2:14">
+      <c r="I69" s="155" t="s">
+        <v>825</v>
+      </c>
+      <c r="J69" s="157"/>
+      <c r="K69" s="157"/>
+      <c r="L69" s="157"/>
+      <c r="M69" s="157"/>
+      <c r="N69" s="157"/>
+    </row>
+    <row r="70" spans="2:14">
+      <c r="I70" s="155" t="s">
+        <v>819</v>
+      </c>
+      <c r="J70" s="157"/>
+      <c r="K70" s="157"/>
+      <c r="L70" s="157"/>
+      <c r="M70" s="157"/>
+      <c r="N70" s="157"/>
+    </row>
+    <row r="71" spans="2:14">
+      <c r="I71" s="155" t="s">
+        <v>832</v>
+      </c>
+      <c r="J71" s="157"/>
+      <c r="K71" s="157"/>
+      <c r="L71" s="157"/>
+      <c r="M71" s="157"/>
+      <c r="N71" s="157"/>
+    </row>
+    <row r="72" spans="2:14">
+      <c r="I72" s="155" t="s">
+        <v>791</v>
+      </c>
+      <c r="J72" s="157"/>
+      <c r="K72" s="157"/>
+      <c r="L72" s="157"/>
+      <c r="M72" s="157"/>
+      <c r="N72" s="157"/>
+    </row>
+    <row r="73" spans="2:14">
+      <c r="I73" s="155" t="s">
+        <v>794</v>
+      </c>
+      <c r="J73" s="157"/>
+      <c r="K73" s="157"/>
+      <c r="L73" s="157"/>
+      <c r="M73" s="157"/>
+      <c r="N73" s="157"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" location="deletemany" xr:uid="{1F2974B3-4870-46E4-B306-BBBDFD70EA67}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03849EC-E05A-4F32-9695-0976483A8F44}">
-  <dimension ref="B1:B67"/>
+  <dimension ref="B1:B102"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17093,13 +23536,125 @@
       </c>
     </row>
     <row r="67" spans="2:2" s="97" customFormat="1"/>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="153" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="153" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="154"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="153" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="155" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="155" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="154"/>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="153" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="155" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="155" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="155" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="155" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="155" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="154"/>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="153" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="154"/>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="156" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="155" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="155" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="155" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="155" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="155" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="155" t="s">
+        <v>229</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983A218F-213C-4E91-AD57-1EC65A9922FC}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -17114,11 +23669,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF59AC9-1334-48DA-B77C-AAC63A625053}">
   <dimension ref="A19"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
@@ -17133,403 +23688,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD139267-C4A1-4F49-BD56-236899625639}">
-  <dimension ref="A1:B84"/>
-  <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="109.5703125" customWidth="1"/>
-    <col min="3" max="3" width="2" customWidth="1"/>
-    <col min="4" max="4" width="63.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2" ht="60">
-      <c r="B1" s="71" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" ht="16.5">
-      <c r="B2" s="42" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="12" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" ht="16.5">
-      <c r="B4" s="42" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="12" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" ht="17.25" thickBot="1">
-      <c r="B6" s="72" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="15.75" thickBot="1"/>
-    <row r="8" spans="2:2" ht="66.75" thickBot="1">
-      <c r="B8" s="73" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="16.5">
-      <c r="B9" s="35" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B10" s="44" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" ht="17.25" thickBot="1">
-      <c r="B11" s="74" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="56" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" ht="16.5">
-      <c r="B13" s="56" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="56" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="75" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="56" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5">
-      <c r="B17" s="76"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18" s="56" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" s="75" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" s="56" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5">
-      <c r="B21" s="76"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" s="56" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16.5">
-      <c r="B23" s="75" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="B24" s="56" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="26" spans="1:2" ht="99.75" thickBot="1">
-      <c r="B26" s="35" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16.5">
-      <c r="B27" s="35" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16.5" thickBot="1">
-      <c r="B28" s="44" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="17.25" thickBot="1">
-      <c r="B29" s="74" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16.5">
-      <c r="A30" s="34" t="s">
-        <v>442</v>
-      </c>
-      <c r="B30" s="57" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="B31" s="58" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="16.5">
-      <c r="B32" s="77"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="B33" s="58" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="16.5">
-      <c r="B34" s="77"/>
-    </row>
-    <row r="35" spans="1:2" ht="16.5">
-      <c r="B35" s="58" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" s="78" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="B37" s="58" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="16.5">
-      <c r="B38" s="77"/>
-    </row>
-    <row r="39" spans="1:2" ht="16.5">
-      <c r="B39" s="58" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16.5">
-      <c r="B40" s="77"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="B41" s="58" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16.5">
-      <c r="B42" s="78" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" thickBot="1">
-      <c r="B43" s="79" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="45" spans="1:2" ht="16.5">
-      <c r="A45" s="34" t="s">
-        <v>443</v>
-      </c>
-      <c r="B45" s="80" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="B46" s="47" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="B47" s="48" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="B48" s="47"/>
-    </row>
-    <row r="49" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B49" s="49" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" ht="15.75" thickBot="1"/>
-    <row r="52" spans="2:2" ht="17.25" thickBot="1">
-      <c r="B52" s="74" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" ht="16.5">
-      <c r="B53" s="35" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B54" s="44" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" ht="17.25" thickBot="1">
-      <c r="B55" s="74" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="80" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="47"/>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="54" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="54" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="48" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="47" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="47" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="47" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="47" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="47" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="47" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="47" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B68" s="49" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" ht="15.75" thickBot="1"/>
-    <row r="71" spans="2:2" ht="50.25" thickBot="1">
-      <c r="B71" s="82" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" ht="16.5">
-      <c r="B72" s="35" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B73" s="44" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" ht="17.25" thickBot="1">
-      <c r="B74" s="74" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="80" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="47"/>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="54" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="48" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="47" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="47" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="47" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="47" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="47" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B84" s="63" t="s">
-        <v>393</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>